--- a/project/code/Clustering Folding Comparison/clusteringvsfolding.xlsx
+++ b/project/code/Clustering Folding Comparison/clusteringvsfolding.xlsx
@@ -5784,8 +5784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FM86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80:FM80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5870,13 +5870,13 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>1.3333333333333299</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6051,31 +6051,31 @@
         <v>8</v>
       </c>
       <c r="D24">
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -6358,115 +6358,115 @@
         <v>36</v>
       </c>
       <c r="D38">
-        <v>0.58974358974359098</v>
+        <v>0.974358974358977</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
@@ -7253,223 +7253,223 @@
         <v>72</v>
       </c>
       <c r="D52">
-        <v>0.43</v>
+        <v>0.99000000000000099</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BX52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:76" x14ac:dyDescent="0.25">
@@ -8904,427 +8904,427 @@
         <v>140</v>
       </c>
       <c r="D66">
-        <v>0.34883720930232198</v>
+        <v>0.99534883720928502</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BT66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CH66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CS66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CW66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DB66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DE66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DF66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DJ66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DP66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DU66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DW66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DZ66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EC66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EE66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EH66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EI66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EN66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:169" x14ac:dyDescent="0.25">
@@ -11983,502 +11983,502 @@
         <v>165</v>
       </c>
       <c r="D80">
-        <v>0.323426573426569</v>
+        <v>0.99650349650349501</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BV80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CX80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DA80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DE80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DG80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DP80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DR80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DS80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DW80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EA80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="ED80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EF80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EI80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EO80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EP80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="ES80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EU80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EV80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EX80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FF80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FH80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FI80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FJ80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FM80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:169" x14ac:dyDescent="0.25">
